--- a/outputs-HGR-r202/g__UBA1081.xlsx
+++ b/outputs-HGR-r202/g__UBA1081.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,29 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88218.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-3.216522190090323</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3.216522190090323</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>s__UBA1081 sp900543395</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__UBA1081 sp900543395(reject)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
